--- a/biology/Botanique/Amicia/Amicia.xlsx
+++ b/biology/Botanique/Amicia/Amicia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amicia est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, originaire d'Amérique du Nord, d'Amérique centrale et d'Amérique du Sud, qui comprend huit espèces acceptées[2].
-Ce sont des plantes herbacées vivaces ou des arbustes très ramifiés, qui se rencontrent comme mauvaises herbes sur les bords de routes ou dans les prairies tropicales montagnardes saisonnièrement sèches jusqu'à 3000 mètres d'altitude[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amicia est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, originaire d'Amérique du Nord, d'Amérique centrale et d'Amérique du Sud, qui comprend huit espèces acceptées.
+Ce sont des plantes herbacées vivaces ou des arbustes très ramifiés, qui se rencontrent comme mauvaises herbes sur les bords de routes ou dans les prairies tropicales montagnardes saisonnièrement sèches jusqu'à 3000 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Amicia », est un hommage à Giovanni Battista Amici (1786-1863), astronome et botaniste italien[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Amicia », est un hommage à Giovanni Battista Amici (1786-1863), astronome et botaniste italien.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (24 décembre 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (24 décembre 2018) :
 Amicia andicola (Griseb.) Harms
 Amicia fimbriata Kuntze
 Amicia glandulosa Kunth
